--- a/biology/Zoologie/Heliconius_astraea/Heliconius_astraea.xlsx
+++ b/biology/Zoologie/Heliconius_astraea/Heliconius_astraea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius astraea est un insecte lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Heliconius.
 </t>
@@ -511,12 +523,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Heliconius astraea a été décrit par Otto Staudinger en 1897 sous le nom de Papilio demeter[1].
-Sous-espèces
-Heliconius astraea astraea ; présent au Brésil en Amazonie.
-Heliconius astraea rondonia Brown, 1973; présent au Brésil dans la région du rio Rondina[1],[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius astraea a été décrit par Otto Staudinger en 1897 sous le nom de Papilio demeter.
+</t>
         </is>
       </c>
     </row>
@@ -541,14 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxinomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un grand papillon aux ailes allongées et arrondies de couleur noire. Les ailes antérieures ont une partie basale rouge et une flaque de taches jaune pâle. Les ailes postérieures sont noires avec des lignes rouge allant de la base jusqu'à la marge.
-Le revers est semblable, en moins coloré.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Heliconius astraea astraea ; présent au Brésil en Amazonie.
+Heliconius astraea rondonia Brown, 1973; présent au Brésil dans la région du rio Rondina,.</t>
         </is>
       </c>
     </row>
@@ -573,14 +590,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Sur les autres projets Wikimedia :
-Heliconius astraea, sur Wikimedia CommonsHeliconius astraea, sur Wikispecies
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand papillon aux ailes allongées et arrondies de couleur noire. Les ailes antérieures ont une partie basale rouge et une flaque de taches jaune pâle. Les ailes postérieures sont noires avec des lignes rouge allant de la base jusqu'à la marge.
+Le revers est semblable, en moins coloré.
 </t>
         </is>
       </c>
@@ -606,13 +624,54 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Sur les autres projets Wikimedia :
+Heliconius astraea, sur Wikimedia CommonsHeliconius astraea, sur Wikispecies
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Heliconius_astraea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_astraea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Il est présent au Brésil[1].
-Biotope</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent au Brésil.
+</t>
         </is>
       </c>
     </row>
